--- a/q3_results.xlsx
+++ b/q3_results.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="39240" yWindow="560" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="0.7 mis branch rate" sheetId="1" r:id="rId1"/>
-    <sheet name="0.7 misbranch" sheetId="2" r:id="rId2"/>
+    <sheet name="0.9 mis branch rate" sheetId="1" r:id="rId1"/>
+    <sheet name="0.9 misbranch #" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>(t4&amp;t3&amp;t2)&amp;&amp;t1-no branch</t>
   </si>
@@ -62,18 +62,41 @@
   <si>
     <t>(t3&amp;t1)&amp;&amp;(t2&amp;t4)-no branch</t>
   </si>
+  <si>
+    <t>selectivity/misbraches</t>
+  </si>
+  <si>
+    <t>selectivity/elapse time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,10 +119,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -108,8 +139,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -178,7 +222,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.7 mis branch rate'!$B$2</c:f>
+              <c:f>'0.9 mis branch rate'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -213,7 +257,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$A$3:$A$13</c:f>
+              <c:f>'0.9 mis branch rate'!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -255,7 +299,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$B$3:$B$13</c:f>
+              <c:f>'0.9 mis branch rate'!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -302,7 +346,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.7 mis branch rate'!$C$2</c:f>
+              <c:f>'0.9 mis branch rate'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -337,7 +381,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$A$3:$A$13</c:f>
+              <c:f>'0.9 mis branch rate'!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -379,7 +423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$C$3:$C$13</c:f>
+              <c:f>'0.9 mis branch rate'!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -426,7 +470,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.7 mis branch rate'!$D$2</c:f>
+              <c:f>'0.9 mis branch rate'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -461,7 +505,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$A$3:$A$13</c:f>
+              <c:f>'0.9 mis branch rate'!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -503,7 +547,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$D$3:$D$13</c:f>
+              <c:f>'0.9 mis branch rate'!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -550,7 +594,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.7 mis branch rate'!$F$2</c:f>
+              <c:f>'0.9 mis branch rate'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -585,7 +629,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$A$3:$A$13</c:f>
+              <c:f>'0.9 mis branch rate'!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -627,7 +671,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$F$3:$F$13</c:f>
+              <c:f>'0.9 mis branch rate'!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -674,7 +718,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.7 mis branch rate'!$E$2</c:f>
+              <c:f>'0.9 mis branch rate'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -709,7 +753,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$A$3:$A$13</c:f>
+              <c:f>'0.9 mis branch rate'!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -751,7 +795,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.7 mis branch rate'!$E$3:$E$13</c:f>
+              <c:f>'0.9 mis branch rate'!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1003,7 +1047,928 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 mis branch rate'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t4&amp;t3&amp;t2)&amp;&amp;t1-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.77E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02460908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0195849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02373792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02468787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01525401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0200327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0216354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0236739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0244831</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.081E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 mis branch rate'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3&amp;t1)&amp;&amp;(t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.48E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03337527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02256152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03592568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03629914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01758706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02231615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02997676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02438493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02382786</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.292E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 mis branch rate'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3)&amp;&amp;(t1&amp;t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$K$3:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.54E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02232663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01763572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02146887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02445176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01152184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01694577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02157488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02087531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02378012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.112E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 mis branch rate'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optimal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$L$3:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.77E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03337527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02256152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03592568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03629914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01152184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01694577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02157488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02087531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02378012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00136302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 mis branch rate'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t1&amp;t2&amp;t3&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 mis branch rate'!$M$3:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.000%">
+                  <c:v>1.488E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.789E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.396E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.532E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.371E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.321E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.001E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00019817</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.614E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.167E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00136302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1849500848"/>
+        <c:axId val="1844287456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1849500848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844287456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1844287456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1849500848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1559,6 +2524,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1586,6 +3067,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>753532</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1625599</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>194733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1857,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="F1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1871,9 +3382,14 @@
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1889,8 +3405,23 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1909,8 +3440,26 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1929,8 +3478,26 @@
       <c r="F3" s="1">
         <v>2.0499999999999999E-6</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.7700000000000002E-6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.48E-6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4.5399999999999997E-6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.7700000000000002E-6</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1.488E-5</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -1949,8 +3516,26 @@
       <c r="F4" s="1">
         <v>2.8966660000000002E-2</v>
       </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.4609079999999998E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.3375269999999999E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.232663E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.3375269999999999E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.789E-5</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -1969,8 +3554,26 @@
       <c r="F5" s="1">
         <v>2.2462139999999998E-2</v>
       </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.9584899999999999E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.2561520000000002E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.7635720000000001E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.2561520000000002E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.396E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.3</v>
       </c>
@@ -1989,8 +3592,26 @@
       <c r="F6" s="1">
         <v>3.381671E-2</v>
       </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.3737919999999999E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.5925680000000002E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.1468870000000001E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.5925680000000002E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.5319999999999999E-5</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.4</v>
       </c>
@@ -2009,8 +3630,26 @@
       <c r="F7" s="1">
         <v>4.2485250000000002E-2</v>
       </c>
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.4687870000000001E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.6299140000000001E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.4451759999999999E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.6299140000000001E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2.3710000000000002E-5</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.5</v>
       </c>
@@ -2029,8 +3668,26 @@
       <c r="F8" s="1">
         <v>1.476303E-2</v>
       </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.525401E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.7587060000000002E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.152184E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.152184E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.3210000000000001E-5</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.6</v>
       </c>
@@ -2049,8 +3706,26 @@
       <c r="F9" s="1">
         <v>3.3699819999999998E-2</v>
       </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.0032700000000001E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.231615E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.6945769999999999E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.6945769999999999E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2.001E-5</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.7</v>
       </c>
@@ -2069,8 +3744,26 @@
       <c r="F10" s="1">
         <v>3.8223430000000003E-2</v>
       </c>
+      <c r="H10">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.1635399999999999E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.9976760000000002E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.1574880000000001E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.1574880000000001E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.9817000000000001E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.8</v>
       </c>
@@ -2089,8 +3782,26 @@
       <c r="F11" s="1">
         <v>4.3860749999999997E-2</v>
       </c>
+      <c r="H11">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.3673900000000001E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.4384929999999999E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.0875310000000001E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.0875310000000001E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.6140000000000001E-5</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -2109,8 +3820,26 @@
       <c r="F12" s="1">
         <v>2.509921E-2</v>
       </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.4483100000000001E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.3827859999999999E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.3780119999999998E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2.3780119999999998E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.167E-5</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2128,6 +3857,24 @@
       </c>
       <c r="F13" s="2">
         <v>3.731E-5</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.081E-5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.292E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.1120000000000001E-5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.3630199999999999E-3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.3630199999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2138,12 +3885,553 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8.7985991999999999E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.6241960000000006E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.6220026000000005E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8.7985991999999999E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.27707004499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.25909805299999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.21110701600000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.37706112899999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.21110701600000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.24887991000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.39272403700000003</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.23323893500000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.20805406600000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.23323893500000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.25699996899999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.26803898799999998</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.241690874</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.20527505900000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.241690874</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.245115995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.35012602799999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.32517480900000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.20000600800000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.32517480900000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.24583005899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.28180384600000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.76789212200000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.21235489799999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.21235489799999999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.24570989600000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.4881451130000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.240367889</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.20758604999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.20758604999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.247515917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.34379792199999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.24270892099999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.47058296199999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.47058296199999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.247119904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.30183792100000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.28332495699999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.22818303100000001</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.22818303100000001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.246249199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.49364590600000002</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.40752291699999998</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.203848839</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.203848839</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.244425058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1.224551916</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.33901119200000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.33724689499999999</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.60142087899999996</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.60142087899999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6">
+        <v>562</v>
+      </c>
+      <c r="C20" s="4">
+        <v>468</v>
+      </c>
+      <c r="D20" s="4">
+        <v>445</v>
+      </c>
+      <c r="E20" s="6">
+        <v>562</v>
+      </c>
+      <c r="F20" s="6">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>9047298</v>
+      </c>
+      <c r="C21" s="4">
+        <v>6620063</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5301741</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6620063</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>19732210</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4389068</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3815696</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4389068</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5914326</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6477224</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4052199</v>
+      </c>
+      <c r="E23" s="4">
+        <v>6477224</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.4</v>
+      </c>
+      <c r="B24" s="4">
+        <v>18600119</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8245265</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5045039</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8245265</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5239586</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4522062</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1980252</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1980252</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.6</v>
+      </c>
+      <c r="B26" s="4">
+        <v>21126464</v>
+      </c>
+      <c r="C26" s="4">
+        <v>9097033</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7087333</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7087333</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.7</v>
+      </c>
+      <c r="B27" s="4">
+        <v>18119264</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10770352</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6752456</v>
+      </c>
+      <c r="E27" s="4">
+        <v>6752456</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.8</v>
+      </c>
+      <c r="B28" s="4">
+        <v>13650419</v>
+      </c>
+      <c r="C28" s="4">
+        <v>11784822</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8855923</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8855923</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.9</v>
+      </c>
+      <c r="B29" s="4">
+        <v>18739388</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5689833</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5843967</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5843967</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>375846</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3912</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3692</v>
+      </c>
+      <c r="E30" s="4">
+        <v>54340</v>
+      </c>
+      <c r="F30" s="4">
+        <v>54340</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/q3_results.xlsx
+++ b/q3_results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39240" yWindow="560" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-3640" yWindow="600" windowWidth="31320" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0.9 mis branch rate" sheetId="1" r:id="rId1"/>
     <sheet name="0.9 misbranch #" sheetId="2" r:id="rId2"/>
+    <sheet name="0.4 misbranch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="15">
   <si>
     <t>(t4&amp;t3&amp;t2)&amp;&amp;t1-no branch</t>
   </si>
@@ -68,14 +69,21 @@
   <si>
     <t>selectivity/elapse time</t>
   </si>
+  <si>
+    <t>(t3&amp;t1&amp;t2)&amp;&amp;(t4)-no branch</t>
+  </si>
+  <si>
+    <t>(t3&amp;t2&amp;t4)&amp;&amp;(t1)-no branch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,7 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -144,6 +152,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1928,6 +1937,4142 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
+              <a:t>Time-Selectivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t4&amp;t3&amp;t2)&amp;&amp;t1-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$B$19:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.7985992E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.59098053E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.92724037E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68038988E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.50126028E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.81803846E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.488145113E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.43797922E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.01837921E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.93645906E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.224551916E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3&amp;t1)&amp;&amp;(t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$C$19:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.624196E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.11107016E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.33238935E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.41690874E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25174809E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.67892122E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.40367889E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.42708921E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.83324957E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.07522917E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.39011192E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3)&amp;&amp;(t1&amp;t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.6220026E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.77061129E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.08054066E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05275059E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.00006008E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.12354898E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0758605E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.70582962E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.28183031E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.03848839E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.37246895E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optimal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$E$19:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.7985992E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.11107016E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.33238935E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.41690874E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25174809E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.12354898E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0758605E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.70582962E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.28183031E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.03848839E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.01420879E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t1&amp;t2&amp;t3&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$F$19:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.77070045E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4887991E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.56999969E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.45115995E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.45830059E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.45709896E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.47515917E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.47119904E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.46249199E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.44425058E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.01420879E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1843522016"/>
+        <c:axId val="1844290992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1843522016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Selectivity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844290992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1844290992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Time  Per Record (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0180762873412329"/>
+              <c:y val="0.265523484982831"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1843522016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Branch Misprediction - Selectivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t4&amp;t3&amp;t2)&amp;&amp;t1-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$B$49:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.62E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09047298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1973221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05914326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18600119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05239586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21126464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18119264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13650419</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18739388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00375846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3&amp;t1)&amp;&amp;(t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$C$49:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.68E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06620063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04389068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06477224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08245265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04522062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09097033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10770352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11784822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05689833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.912E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3)&amp;&amp;(t1&amp;t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$D$49:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.45E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05301741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03815696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04052199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05045039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01980252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07087333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06752456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08855923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05843967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.692E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$E$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optimal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$E$49:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.62E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06620063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04389068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06477224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08245265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01980252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07087333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06752456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08855923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05843967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0005434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$F$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t1&amp;t2&amp;t3&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$F$49:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.532E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.633E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.313E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.399E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.28E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.417E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.65E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.535E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.68E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.394E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0005434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1852132272"/>
+        <c:axId val="1843615552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1852132272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Selectivity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.508507751987578"/>
+              <c:y val="0.805856798069187"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1843615552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1843615552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Branch Misprediction per Record</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0216663837526006"/>
+              <c:y val="0.253995003599102"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852132272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t> -Selectivity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t4&amp;t3&amp;t2)&amp;&amp;t1-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$B$19:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.7985992E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.59098053E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.92724037E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68038988E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.50126028E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.81803846E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.488145113E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.43797922E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.01837921E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.93645906E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.224551916E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3&amp;t1)&amp;&amp;(t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$C$19:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.624196E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.11107016E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.33238935E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.41690874E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25174809E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.67892122E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.40367889E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.42708921E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.83324957E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.07522917E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.39011192E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3)&amp;&amp;(t1&amp;t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.6220026E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.77061129E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.08054066E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05275059E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.00006008E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.12354898E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0758605E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.70582962E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.28183031E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.03848839E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.37246895E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optimal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$E$19:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.7985992E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.11107016E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.33238935E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.41690874E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25174809E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.12354898E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0758605E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.70582962E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.28183031E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.03848839E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.01420879E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t1&amp;t2&amp;t3&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$F$19:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.77070045E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4887991E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.56999969E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.45115995E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.45830059E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.45709896E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.47515917E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.47119904E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.46249199E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.44425058E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.01420879E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1851485376"/>
+        <c:axId val="1851486736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1851485376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0"/>
+                  <a:t>Selectivity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851486736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1851486736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                  <a:t> per Reocrd (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+                  <a:t>ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851485376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.168427948170758"/>
+          <c:y val="0.888754744603295"/>
+          <c:w val="0.726751459779984"/>
+          <c:h val="0.0909033756708716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Branch Mispredictions - Selectivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t4&amp;t3&amp;t2)&amp;&amp;t1-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$B$49:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.62E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09047298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1973221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05914326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18600119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05239586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21126464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18119264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13650419</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18739388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00375846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3&amp;t1)&amp;&amp;(t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$C$49:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.68E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06620063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04389068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06477224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08245265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04522062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09097033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10770352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11784822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05689833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.912E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t3)&amp;&amp;(t1&amp;t2&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$D$49:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.45E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05301741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03815696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04052199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05045039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01980252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07087333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06752456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08855923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05843967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.692E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$E$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optimal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$E$49:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.62E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06620063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04389068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06477224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08245265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01980252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07087333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06752456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08855923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05843967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0005434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.9 misbranch #'!$F$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(t1&amp;t2&amp;t3&amp;t4)-no branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0.9 misbranch #'!$F$49:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.532E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.633E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.313E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.399E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.28E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.417E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.65E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.535E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.68E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.394E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0005434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1851078208"/>
+        <c:axId val="1851254176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1851078208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Selectiivity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.521197483452335"/>
+              <c:y val="0.810047380001323"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851254176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1851254176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Brnach Mispredictions</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                  <a:t> per Record </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851078208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2008,6 +6153,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2525,6 +6830,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3089,6 +9458,140 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>256331</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>664128</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69907</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469548</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>58256</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660721</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>170755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53361</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>117394</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>626229</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>817471</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3370,8 +9873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M13"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3885,10 +10388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4171,267 +10674,2081 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>100000000</v>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
+      <c r="B19" s="7">
+        <f>B4/100000</f>
+        <v>8.7985992000000002E-7</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:F19" si="0">C4/100000</f>
+        <v>8.6241960000000005E-7</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>8.6220026000000007E-7</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>8.7985992000000002E-7</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7707004499999997E-6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6">
-        <v>562</v>
-      </c>
-      <c r="C20" s="4">
-        <v>468</v>
-      </c>
-      <c r="D20" s="4">
-        <v>445</v>
-      </c>
-      <c r="E20" s="6">
-        <v>562</v>
-      </c>
-      <c r="F20" s="6">
-        <v>7532</v>
+        <v>0.1</v>
+      </c>
+      <c r="B20" s="7">
+        <f t="shared" ref="B20:F20" si="1">B5/100000</f>
+        <v>2.5909805300000002E-6</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1110701600000002E-6</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>3.77061129E-6</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1110701600000002E-6</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4887990999999999E-6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>0.1</v>
-      </c>
-      <c r="B21" s="4">
-        <v>9047298</v>
-      </c>
-      <c r="C21" s="4">
-        <v>6620063</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5301741</v>
-      </c>
-      <c r="E21" s="4">
-        <v>6620063</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1633</v>
+        <v>0.2</v>
+      </c>
+      <c r="B21" s="7">
+        <f t="shared" ref="B21:F21" si="2">B6/100000</f>
+        <v>3.92724037E-6</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="2"/>
+        <v>2.33238935E-6</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="2"/>
+        <v>2.0805406599999999E-6</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="2"/>
+        <v>2.33238935E-6</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5699996899999999E-6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0.2</v>
-      </c>
-      <c r="B22" s="4">
-        <v>19732210</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4389068</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3815696</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4389068</v>
-      </c>
-      <c r="F22" s="4">
-        <v>4313</v>
+        <v>0.3</v>
+      </c>
+      <c r="B22" s="7">
+        <f t="shared" ref="B22:F22" si="3">B7/100000</f>
+        <v>2.6803898799999999E-6</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="3"/>
+        <v>2.41690874E-6</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0527505900000002E-6</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="3"/>
+        <v>2.41690874E-6</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4511599500000001E-6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0.3</v>
-      </c>
-      <c r="B23" s="4">
-        <v>5914326</v>
-      </c>
-      <c r="C23" s="4">
-        <v>6477224</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4052199</v>
-      </c>
-      <c r="E23" s="4">
-        <v>6477224</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1399</v>
+        <v>0.4</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" ref="B23:F23" si="4">B8/100000</f>
+        <v>3.5012602799999997E-6</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="4"/>
+        <v>3.2517480899999999E-6</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="4"/>
+        <v>2.0000600800000002E-6</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="4"/>
+        <v>3.2517480899999999E-6</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="4"/>
+        <v>2.4583005900000001E-6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0.4</v>
-      </c>
-      <c r="B24" s="4">
-        <v>18600119</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8245265</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5045039</v>
-      </c>
-      <c r="E24" s="4">
-        <v>8245265</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1280</v>
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" ref="B24:F24" si="5">B9/100000</f>
+        <v>2.8180384600000001E-6</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="5"/>
+        <v>7.6789212200000006E-6</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="5"/>
+        <v>2.1235489799999999E-6</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="5"/>
+        <v>2.1235489799999999E-6</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="5"/>
+        <v>2.4570989600000002E-6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5239586</v>
-      </c>
-      <c r="C25" s="4">
-        <v>4522062</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1980252</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1980252</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1417</v>
+        <v>0.6</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" ref="B25:F25" si="6">B10/100000</f>
+        <v>1.488145113E-5</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="6"/>
+        <v>2.4036788899999998E-6</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="6"/>
+        <v>2.0758604999999998E-6</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="6"/>
+        <v>2.0758604999999998E-6</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="6"/>
+        <v>2.4751591699999999E-6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.6</v>
-      </c>
-      <c r="B26" s="4">
-        <v>21126464</v>
-      </c>
-      <c r="C26" s="4">
-        <v>9097033</v>
-      </c>
-      <c r="D26" s="4">
-        <v>7087333</v>
-      </c>
-      <c r="E26" s="4">
-        <v>7087333</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1650</v>
+        <v>0.7</v>
+      </c>
+      <c r="B26" s="7">
+        <f t="shared" ref="B26:F26" si="7">B11/100000</f>
+        <v>3.43797922E-6</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="7"/>
+        <v>2.4270892100000001E-6</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="7"/>
+        <v>4.7058296200000002E-6</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="7"/>
+        <v>4.7058296200000002E-6</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="7"/>
+        <v>2.4711990400000001E-6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.7</v>
-      </c>
-      <c r="B27" s="4">
-        <v>18119264</v>
-      </c>
-      <c r="C27" s="4">
-        <v>10770352</v>
-      </c>
-      <c r="D27" s="4">
-        <v>6752456</v>
-      </c>
-      <c r="E27" s="4">
-        <v>6752456</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1535</v>
+        <v>0.8</v>
+      </c>
+      <c r="B27" s="7">
+        <f t="shared" ref="B27:F27" si="8">B12/100000</f>
+        <v>3.0183792099999999E-6</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8332495699999999E-6</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="8"/>
+        <v>2.28183031E-6</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="8"/>
+        <v>2.28183031E-6</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="8"/>
+        <v>2.4624919900000001E-6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.8</v>
-      </c>
-      <c r="B28" s="4">
-        <v>13650419</v>
-      </c>
-      <c r="C28" s="4">
-        <v>11784822</v>
-      </c>
-      <c r="D28" s="4">
-        <v>8855923</v>
-      </c>
-      <c r="E28" s="4">
-        <v>8855923</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1680</v>
+        <v>0.9</v>
+      </c>
+      <c r="B28" s="7">
+        <f t="shared" ref="B28:F28" si="9">B13/100000</f>
+        <v>4.9364590600000002E-6</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="9"/>
+        <v>4.0752291700000001E-6</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="9"/>
+        <v>2.0384883900000001E-6</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="9"/>
+        <v>2.0384883900000001E-6</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="9"/>
+        <v>2.4442505799999999E-6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.9</v>
-      </c>
-      <c r="B29" s="4">
-        <v>18739388</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5689833</v>
-      </c>
-      <c r="D29" s="4">
-        <v>5843967</v>
-      </c>
-      <c r="E29" s="4">
-        <v>5843967</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1394</v>
+        <v>1</v>
+      </c>
+      <c r="B29" s="7">
+        <f t="shared" ref="B29:F29" si="10">B14/100000</f>
+        <v>1.2245519160000001E-5</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="10"/>
+        <v>3.39011192E-6</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="10"/>
+        <v>3.3724689499999997E-6</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="10"/>
+        <v>6.0142087899999999E-6</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="10"/>
+        <v>6.0142087899999999E-6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="4">
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="6">
+        <v>562</v>
+      </c>
+      <c r="C34" s="4">
+        <v>468</v>
+      </c>
+      <c r="D34" s="4">
+        <v>445</v>
+      </c>
+      <c r="E34" s="6">
+        <v>562</v>
+      </c>
+      <c r="F34" s="6">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.1</v>
+      </c>
+      <c r="B35" s="4">
+        <v>9047298</v>
+      </c>
+      <c r="C35" s="4">
+        <v>6620063</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5301741</v>
+      </c>
+      <c r="E35" s="4">
+        <v>6620063</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>19732210</v>
+      </c>
+      <c r="C36" s="4">
+        <v>4389068</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3815696</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4389068</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5914326</v>
+      </c>
+      <c r="C37" s="4">
+        <v>6477224</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4052199</v>
+      </c>
+      <c r="E37" s="4">
+        <v>6477224</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.4</v>
+      </c>
+      <c r="B38" s="4">
+        <v>18600119</v>
+      </c>
+      <c r="C38" s="4">
+        <v>8245265</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5045039</v>
+      </c>
+      <c r="E38" s="4">
+        <v>8245265</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.5</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5239586</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4522062</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1980252</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1980252</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.6</v>
+      </c>
+      <c r="B40" s="4">
+        <v>21126464</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9097033</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7087333</v>
+      </c>
+      <c r="E40" s="4">
+        <v>7087333</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.7</v>
+      </c>
+      <c r="B41" s="4">
+        <v>18119264</v>
+      </c>
+      <c r="C41" s="4">
+        <v>10770352</v>
+      </c>
+      <c r="D41" s="4">
+        <v>6752456</v>
+      </c>
+      <c r="E41" s="4">
+        <v>6752456</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.8</v>
+      </c>
+      <c r="B42" s="4">
+        <v>13650419</v>
+      </c>
+      <c r="C42" s="4">
+        <v>11784822</v>
+      </c>
+      <c r="D42" s="4">
+        <v>8855923</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8855923</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.9</v>
+      </c>
+      <c r="B43" s="4">
+        <v>18739388</v>
+      </c>
+      <c r="C43" s="4">
+        <v>5689833</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5843967</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5843967</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
         <v>375846</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C44" s="4">
         <v>3912</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D44" s="4">
         <v>3692</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E44" s="4">
         <v>54340</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F44" s="4">
         <v>54340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" s="7">
+        <f>B34/100000000</f>
+        <v>5.6200000000000004E-6</v>
+      </c>
+      <c r="C49" s="7">
+        <f t="shared" ref="C49:F49" si="11">C34/100000000</f>
+        <v>4.6800000000000001E-6</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="11"/>
+        <v>4.4499999999999997E-6</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="11"/>
+        <v>5.6200000000000004E-6</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="11"/>
+        <v>7.5320000000000004E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.1</v>
+      </c>
+      <c r="B50" s="7">
+        <f t="shared" ref="B50:F50" si="12">B35/100000000</f>
+        <v>9.0472979999999995E-2</v>
+      </c>
+      <c r="C50" s="7">
+        <f t="shared" si="12"/>
+        <v>6.6200629999999996E-2</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="12"/>
+        <v>5.3017410000000001E-2</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="12"/>
+        <v>6.6200629999999996E-2</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="12"/>
+        <v>1.6330000000000001E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.2</v>
+      </c>
+      <c r="B51" s="7">
+        <f t="shared" ref="B51:F51" si="13">B36/100000000</f>
+        <v>0.1973221</v>
+      </c>
+      <c r="C51" s="7">
+        <f t="shared" si="13"/>
+        <v>4.3890680000000001E-2</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="13"/>
+        <v>3.8156959999999997E-2</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="13"/>
+        <v>4.3890680000000001E-2</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="13"/>
+        <v>4.3130000000000002E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.3</v>
+      </c>
+      <c r="B52" s="7">
+        <f t="shared" ref="B52:F52" si="14">B37/100000000</f>
+        <v>5.9143260000000003E-2</v>
+      </c>
+      <c r="C52" s="7">
+        <f t="shared" si="14"/>
+        <v>6.4772239999999995E-2</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="14"/>
+        <v>4.0521990000000001E-2</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="14"/>
+        <v>6.4772239999999995E-2</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="14"/>
+        <v>1.399E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.4</v>
+      </c>
+      <c r="B53" s="7">
+        <f t="shared" ref="B53:F53" si="15">B38/100000000</f>
+        <v>0.18600119000000001</v>
+      </c>
+      <c r="C53" s="7">
+        <f t="shared" si="15"/>
+        <v>8.2452650000000002E-2</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="15"/>
+        <v>5.0450389999999998E-2</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="15"/>
+        <v>8.2452650000000002E-2</v>
+      </c>
+      <c r="F53" s="7">
+        <f t="shared" si="15"/>
+        <v>1.2799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.5</v>
+      </c>
+      <c r="B54" s="7">
+        <f t="shared" ref="B54:F54" si="16">B39/100000000</f>
+        <v>5.2395860000000002E-2</v>
+      </c>
+      <c r="C54" s="7">
+        <f t="shared" si="16"/>
+        <v>4.5220620000000003E-2</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="16"/>
+        <v>1.9802520000000001E-2</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="16"/>
+        <v>1.9802520000000001E-2</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" si="16"/>
+        <v>1.417E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.6</v>
+      </c>
+      <c r="B55" s="7">
+        <f t="shared" ref="B55:F55" si="17">B40/100000000</f>
+        <v>0.21126464</v>
+      </c>
+      <c r="C55" s="7">
+        <f t="shared" si="17"/>
+        <v>9.0970330000000002E-2</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="17"/>
+        <v>7.0873329999999998E-2</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="17"/>
+        <v>7.0873329999999998E-2</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="17"/>
+        <v>1.6500000000000001E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.7</v>
+      </c>
+      <c r="B56" s="7">
+        <f t="shared" ref="B56:F56" si="18">B41/100000000</f>
+        <v>0.18119263999999999</v>
+      </c>
+      <c r="C56" s="7">
+        <f t="shared" si="18"/>
+        <v>0.10770352</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="18"/>
+        <v>6.7524559999999997E-2</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="18"/>
+        <v>6.7524559999999997E-2</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="18"/>
+        <v>1.535E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.8</v>
+      </c>
+      <c r="B57" s="7">
+        <f t="shared" ref="B57:F57" si="19">B42/100000000</f>
+        <v>0.13650419</v>
+      </c>
+      <c r="C57" s="7">
+        <f t="shared" si="19"/>
+        <v>0.11784822</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="19"/>
+        <v>8.8559230000000003E-2</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="19"/>
+        <v>8.8559230000000003E-2</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="19"/>
+        <v>1.6799999999999998E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.9</v>
+      </c>
+      <c r="B58" s="7">
+        <f t="shared" ref="B58:F58" si="20">B43/100000000</f>
+        <v>0.18739388000000001</v>
+      </c>
+      <c r="C58" s="7">
+        <f t="shared" si="20"/>
+        <v>5.6898329999999997E-2</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" si="20"/>
+        <v>5.8439669999999999E-2</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="20"/>
+        <v>5.8439669999999999E-2</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" si="20"/>
+        <v>1.394E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7">
+        <f t="shared" ref="B59:F59" si="21">B44/100000000</f>
+        <v>3.7584599999999999E-3</v>
+      </c>
+      <c r="C59" s="7">
+        <f t="shared" si="21"/>
+        <v>3.9119999999999998E-5</v>
+      </c>
+      <c r="D59" s="7">
+        <f t="shared" si="21"/>
+        <v>3.6919999999999999E-5</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" si="21"/>
+        <v>5.4339999999999998E-4</v>
+      </c>
+      <c r="F59" s="7">
+        <f t="shared" si="21"/>
+        <v>5.4339999999999998E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8.7167024999999995E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.115970135</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.6560011000000006E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8.7167024999999995E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.242588043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.61837101000000005</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.54887008699999995</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.247462034</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.54887008699999995</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.35850906399999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.58617210399999997</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.82744097699999997</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.38841795899999998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.82744097699999997</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.24463391300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.90861320499999998</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.26915407200000002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.25650787400000002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.25650787400000002</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.24133300799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.63343906400000005</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.25981903099999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.24659395200000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.24659395200000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.24567413299999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.85217308999999997</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.26627993599999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.250802994</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.250802994</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.25419116000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.61206078500000005</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.267493963</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.25285196300000001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.25285196300000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.244530201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.69848895099999997</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.26991987200000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.25769281399999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.25769281399999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.24358296400000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.073744059</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.25083184200000003</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.25779295000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.25779295000000002</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.24635887100000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.618069172</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.24092888800000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.273442984</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.273442984</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.24514317499999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1.748017073</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.60288214699999998</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.40083384500000002</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.97522807099999997</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.97522807099999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6">
+        <v>465</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1356</v>
+      </c>
+      <c r="D18" s="4">
+        <v>462</v>
+      </c>
+      <c r="E18" s="6">
+        <v>465</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>30592345</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7422048</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7499966</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7422048</v>
+      </c>
+      <c r="F19" s="4">
+        <v>24476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>29134180</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6744038</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7794621</v>
+      </c>
+      <c r="E20" s="4">
+        <v>6744038</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>31765282</v>
+      </c>
+      <c r="C21" s="4">
+        <v>8683145</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6617595</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6617595</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="4">
+        <v>31219463</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8576483</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7033109</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7033109</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>30377227</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10096350</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7488329</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7488329</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.6</v>
+      </c>
+      <c r="B24" s="4">
+        <v>31920172</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9051988</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7484939</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7484939</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.7</v>
+      </c>
+      <c r="B25" s="4">
+        <v>31640008</v>
+      </c>
+      <c r="C25" s="4">
+        <v>10794619</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8263999</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8263999</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.8</v>
+      </c>
+      <c r="B26" s="4">
+        <v>31788668</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8204723</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7393928</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7393928</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.9</v>
+      </c>
+      <c r="B27" s="4">
+        <v>31348728</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7687715</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7333234</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7333234</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>577824</v>
+      </c>
+      <c r="C28" s="4">
+        <v>464048</v>
+      </c>
+      <c r="D28" s="4">
+        <v>70328</v>
+      </c>
+      <c r="E28" s="4">
+        <v>407075</v>
+      </c>
+      <c r="F28" s="4">
+        <v>407075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" s="7">
+        <f>B4/100000</f>
+        <v>8.7167024999999992E-7</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" ref="C32:F32" si="0">C4/100000</f>
+        <v>1.1597013500000001E-6</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>8.656001100000001E-7</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>8.7167024999999992E-7</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4258804299999999E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33" s="7">
+        <f>B5/100000</f>
+        <v>6.1837101000000004E-6</v>
+      </c>
+      <c r="C33" s="7">
+        <f>C5/100000</f>
+        <v>5.4887008699999996E-6</v>
+      </c>
+      <c r="D33" s="7">
+        <f>D5/100000</f>
+        <v>2.4746203400000001E-6</v>
+      </c>
+      <c r="E33" s="7">
+        <f>E5/100000</f>
+        <v>5.4887008699999996E-6</v>
+      </c>
+      <c r="F33" s="7">
+        <f>F5/100000</f>
+        <v>3.5850906399999997E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.2</v>
+      </c>
+      <c r="B34" s="7">
+        <f>B6/100000</f>
+        <v>5.8617210399999994E-6</v>
+      </c>
+      <c r="C34" s="7">
+        <f>C6/100000</f>
+        <v>8.2744097699999996E-6</v>
+      </c>
+      <c r="D34" s="7">
+        <f>D6/100000</f>
+        <v>3.8841795899999999E-6</v>
+      </c>
+      <c r="E34" s="7">
+        <f>E6/100000</f>
+        <v>8.2744097699999996E-6</v>
+      </c>
+      <c r="F34" s="7">
+        <f>F6/100000</f>
+        <v>2.44633913E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.3</v>
+      </c>
+      <c r="B35" s="7">
+        <f>B7/100000</f>
+        <v>9.0861320499999993E-6</v>
+      </c>
+      <c r="C35" s="7">
+        <f>C7/100000</f>
+        <v>2.6915407200000003E-6</v>
+      </c>
+      <c r="D35" s="7">
+        <f>D7/100000</f>
+        <v>2.5650787400000002E-6</v>
+      </c>
+      <c r="E35" s="7">
+        <f>E7/100000</f>
+        <v>2.5650787400000002E-6</v>
+      </c>
+      <c r="F35" s="7">
+        <f>F7/100000</f>
+        <v>2.4133300799999997E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.4</v>
+      </c>
+      <c r="B36" s="7">
+        <f>B8/100000</f>
+        <v>6.3343906400000006E-6</v>
+      </c>
+      <c r="C36" s="7">
+        <f>C8/100000</f>
+        <v>2.5981903099999997E-6</v>
+      </c>
+      <c r="D36" s="7">
+        <f>D8/100000</f>
+        <v>2.4659395200000002E-6</v>
+      </c>
+      <c r="E36" s="7">
+        <f>E8/100000</f>
+        <v>2.4659395200000002E-6</v>
+      </c>
+      <c r="F36" s="7">
+        <f>F8/100000</f>
+        <v>2.4567413299999999E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.5</v>
+      </c>
+      <c r="B37" s="7">
+        <f>B9/100000</f>
+        <v>8.5217308999999999E-6</v>
+      </c>
+      <c r="C37" s="7">
+        <f>C9/100000</f>
+        <v>2.6627993599999999E-6</v>
+      </c>
+      <c r="D37" s="7">
+        <f>D9/100000</f>
+        <v>2.5080299400000001E-6</v>
+      </c>
+      <c r="E37" s="7">
+        <f>E9/100000</f>
+        <v>2.5080299400000001E-6</v>
+      </c>
+      <c r="F37" s="7">
+        <f>F9/100000</f>
+        <v>2.5419116000000003E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.6</v>
+      </c>
+      <c r="B38" s="7">
+        <f>B10/100000</f>
+        <v>6.1206078500000006E-6</v>
+      </c>
+      <c r="C38" s="7">
+        <f>C10/100000</f>
+        <v>2.67493963E-6</v>
+      </c>
+      <c r="D38" s="7">
+        <f>D10/100000</f>
+        <v>2.5285196300000003E-6</v>
+      </c>
+      <c r="E38" s="7">
+        <f>E10/100000</f>
+        <v>2.5285196300000003E-6</v>
+      </c>
+      <c r="F38" s="7">
+        <f>F10/100000</f>
+        <v>2.44530201E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.7</v>
+      </c>
+      <c r="B39" s="7">
+        <f>B11/100000</f>
+        <v>6.9848895100000001E-6</v>
+      </c>
+      <c r="C39" s="7">
+        <f>C11/100000</f>
+        <v>2.6991987199999999E-6</v>
+      </c>
+      <c r="D39" s="7">
+        <f>D11/100000</f>
+        <v>2.5769281399999999E-6</v>
+      </c>
+      <c r="E39" s="7">
+        <f>E11/100000</f>
+        <v>2.5769281399999999E-6</v>
+      </c>
+      <c r="F39" s="7">
+        <f>F11/100000</f>
+        <v>2.43582964E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.8</v>
+      </c>
+      <c r="B40" s="7">
+        <f>B12/100000</f>
+        <v>1.0737440590000001E-5</v>
+      </c>
+      <c r="C40" s="7">
+        <f>C12/100000</f>
+        <v>2.5083184200000001E-6</v>
+      </c>
+      <c r="D40" s="7">
+        <f>D12/100000</f>
+        <v>2.5779295000000002E-6</v>
+      </c>
+      <c r="E40" s="7">
+        <f>E12/100000</f>
+        <v>2.5779295000000002E-6</v>
+      </c>
+      <c r="F40" s="7">
+        <f>F12/100000</f>
+        <v>2.4635887099999999E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.9</v>
+      </c>
+      <c r="B41" s="7">
+        <f>B13/100000</f>
+        <v>6.1806917200000004E-6</v>
+      </c>
+      <c r="C41" s="7">
+        <f>C13/100000</f>
+        <v>2.4092888800000003E-6</v>
+      </c>
+      <c r="D41" s="7">
+        <f>D13/100000</f>
+        <v>2.7344298399999999E-6</v>
+      </c>
+      <c r="E41" s="7">
+        <f>E13/100000</f>
+        <v>2.7344298399999999E-6</v>
+      </c>
+      <c r="F41" s="7">
+        <f>F13/100000</f>
+        <v>2.4514317499999997E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="7">
+        <f>B14/100000</f>
+        <v>1.7480170730000001E-5</v>
+      </c>
+      <c r="C42" s="7">
+        <f>C14/100000</f>
+        <v>6.0288214699999999E-6</v>
+      </c>
+      <c r="D42" s="7">
+        <f>D14/100000</f>
+        <v>4.0083384500000006E-6</v>
+      </c>
+      <c r="E42" s="7">
+        <f>E14/100000</f>
+        <v>9.7522807099999995E-6</v>
+      </c>
+      <c r="F42" s="7">
+        <f>F14/100000</f>
+        <v>9.7522807099999995E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" s="7">
+        <f>B18/100000000</f>
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="C49" s="7">
+        <f>C18/100000000</f>
+        <v>1.3560000000000001E-5</v>
+      </c>
+      <c r="D49" s="7">
+        <f>D18/100000000</f>
+        <v>4.6199999999999998E-6</v>
+      </c>
+      <c r="E49" s="7">
+        <f>E18/100000000</f>
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="F49" s="7">
+        <f>F18/100000000</f>
+        <v>1.385E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.1</v>
+      </c>
+      <c r="B50" s="7">
+        <f>B19/100000000</f>
+        <v>0.30592344999999999</v>
+      </c>
+      <c r="C50" s="7">
+        <f>C19/100000000</f>
+        <v>7.4220480000000005E-2</v>
+      </c>
+      <c r="D50" s="7">
+        <f>D19/100000000</f>
+        <v>7.4999659999999996E-2</v>
+      </c>
+      <c r="E50" s="7">
+        <f>E19/100000000</f>
+        <v>7.4220480000000005E-2</v>
+      </c>
+      <c r="F50" s="7">
+        <f>F19/100000000</f>
+        <v>2.4476000000000001E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.2</v>
+      </c>
+      <c r="B51" s="7">
+        <f>B20/100000000</f>
+        <v>0.29134179999999998</v>
+      </c>
+      <c r="C51" s="7">
+        <f>C20/100000000</f>
+        <v>6.7440379999999994E-2</v>
+      </c>
+      <c r="D51" s="7">
+        <f>D20/100000000</f>
+        <v>7.7946210000000002E-2</v>
+      </c>
+      <c r="E51" s="7">
+        <f>E20/100000000</f>
+        <v>6.7440379999999994E-2</v>
+      </c>
+      <c r="F51" s="7">
+        <f>F20/100000000</f>
+        <v>1.2099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.3</v>
+      </c>
+      <c r="B52" s="7">
+        <f>B21/100000000</f>
+        <v>0.31765282</v>
+      </c>
+      <c r="C52" s="7">
+        <f>C21/100000000</f>
+        <v>8.6831450000000004E-2</v>
+      </c>
+      <c r="D52" s="7">
+        <f>D21/100000000</f>
+        <v>6.6175949999999997E-2</v>
+      </c>
+      <c r="E52" s="7">
+        <f>E21/100000000</f>
+        <v>6.6175949999999997E-2</v>
+      </c>
+      <c r="F52" s="7">
+        <f>F21/100000000</f>
+        <v>1.129E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.4</v>
+      </c>
+      <c r="B53" s="7">
+        <f>B22/100000000</f>
+        <v>0.31219462999999997</v>
+      </c>
+      <c r="C53" s="7">
+        <f>C22/100000000</f>
+        <v>8.576483E-2</v>
+      </c>
+      <c r="D53" s="7">
+        <f>D22/100000000</f>
+        <v>7.0331089999999999E-2</v>
+      </c>
+      <c r="E53" s="7">
+        <f>E22/100000000</f>
+        <v>7.0331089999999999E-2</v>
+      </c>
+      <c r="F53" s="7">
+        <f>F22/100000000</f>
+        <v>1.288E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.5</v>
+      </c>
+      <c r="B54" s="7">
+        <f>B23/100000000</f>
+        <v>0.30377227000000001</v>
+      </c>
+      <c r="C54" s="7">
+        <f>C23/100000000</f>
+        <v>0.1009635</v>
+      </c>
+      <c r="D54" s="7">
+        <f>D23/100000000</f>
+        <v>7.4883290000000005E-2</v>
+      </c>
+      <c r="E54" s="7">
+        <f>E23/100000000</f>
+        <v>7.4883290000000005E-2</v>
+      </c>
+      <c r="F54" s="7">
+        <f>F23/100000000</f>
+        <v>1.185E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.6</v>
+      </c>
+      <c r="B55" s="7">
+        <f>B24/100000000</f>
+        <v>0.31920172000000002</v>
+      </c>
+      <c r="C55" s="7">
+        <f>C24/100000000</f>
+        <v>9.0519879999999997E-2</v>
+      </c>
+      <c r="D55" s="7">
+        <f>D24/100000000</f>
+        <v>7.4849390000000002E-2</v>
+      </c>
+      <c r="E55" s="7">
+        <f>E24/100000000</f>
+        <v>7.4849390000000002E-2</v>
+      </c>
+      <c r="F55" s="7">
+        <f>F24/100000000</f>
+        <v>1.312E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.7</v>
+      </c>
+      <c r="B56" s="7">
+        <f>B25/100000000</f>
+        <v>0.31640007999999997</v>
+      </c>
+      <c r="C56" s="7">
+        <f>C25/100000000</f>
+        <v>0.10794619</v>
+      </c>
+      <c r="D56" s="7">
+        <f>D25/100000000</f>
+        <v>8.2639989999999997E-2</v>
+      </c>
+      <c r="E56" s="7">
+        <f>E25/100000000</f>
+        <v>8.2639989999999997E-2</v>
+      </c>
+      <c r="F56" s="7">
+        <f>F25/100000000</f>
+        <v>1.234E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.8</v>
+      </c>
+      <c r="B57" s="7">
+        <f>B26/100000000</f>
+        <v>0.31788667999999998</v>
+      </c>
+      <c r="C57" s="7">
+        <f>C26/100000000</f>
+        <v>8.2047229999999999E-2</v>
+      </c>
+      <c r="D57" s="7">
+        <f>D26/100000000</f>
+        <v>7.3939279999999996E-2</v>
+      </c>
+      <c r="E57" s="7">
+        <f>E26/100000000</f>
+        <v>7.3939279999999996E-2</v>
+      </c>
+      <c r="F57" s="7">
+        <f>F26/100000000</f>
+        <v>1.8479999999999999E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.9</v>
+      </c>
+      <c r="B58" s="7">
+        <f>B27/100000000</f>
+        <v>0.31348727999999998</v>
+      </c>
+      <c r="C58" s="7">
+        <f>C27/100000000</f>
+        <v>7.6877150000000005E-2</v>
+      </c>
+      <c r="D58" s="7">
+        <f>D27/100000000</f>
+        <v>7.3332339999999996E-2</v>
+      </c>
+      <c r="E58" s="7">
+        <f>E27/100000000</f>
+        <v>7.3332339999999996E-2</v>
+      </c>
+      <c r="F58" s="7">
+        <f>F27/100000000</f>
+        <v>1.3550000000000001E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7">
+        <f>B28/100000000</f>
+        <v>5.7782399999999996E-3</v>
+      </c>
+      <c r="C59" s="7">
+        <f>C28/100000000</f>
+        <v>4.6404799999999998E-3</v>
+      </c>
+      <c r="D59" s="7">
+        <f>D28/100000000</f>
+        <v>7.0328000000000003E-4</v>
+      </c>
+      <c r="E59" s="7">
+        <f>E28/100000000</f>
+        <v>4.0707499999999997E-3</v>
+      </c>
+      <c r="F59" s="7">
+        <f>F28/100000000</f>
+        <v>4.0707499999999997E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>